--- a/passage_qa/questionbank.xlsx
+++ b/passage_qa/questionbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\passage_qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC9EA99-D2BF-453D-8311-BE96438E9751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14312D-7D56-4F10-95F8-93D175210AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1872" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>R1</t>
   </si>
@@ -33,57 +33,15 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>1: Why is sleep important for the human body?</t>
-  </si>
-  <si>
-    <t>a. It allows the body to repair and regenerate itself
-b. It helps the mind and body rest and recharge
-c. It helps reduce stress levels
-d. All of the above</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
-    <t>2: What are some consequences of lack of sleep?</t>
-  </si>
-  <si>
-    <t>a. Decreased alertness
-b. Decreased ability to concentrate
-c. Increased stress levels
-d. All of the above</t>
-  </si>
-  <si>
     <t>Q3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3: What is the ideal sleep environment?</t>
-  </si>
-  <si>
-    <t>a. A quiet, dark room with a comfortable bed and pillows
-b. A room with a lot of light and noise
-c. A room with warm bed and pillows
-d. None of the above</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>4: How much sleep do most adults need each night?</t>
-  </si>
-  <si>
-    <t>a. 4 hours
-b. 5 hours
-c. 7 to 8 hours
-d. 9 hours</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -100,6 +58,126 @@
   </si>
   <si>
     <t>Correct_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: What is the Greek word for citizen?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Polis  
+B) Politas  
+C) Pericles  
+D) Subject </t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: What problem did the Greeks wrestle with, according to the passage?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) The conflict between different city-states  
+B) Balancing individual interests with the needs of the community  
+C) Developing a new form of government  
+D) Expanding their territory   </t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: What indicates that the Mycenaean towns were in contact with each other?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Different languages 
+B) Similar pottery styles  
+C) Unique architecture  
+D) Diverse cultural practices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: What term does the passage use to describe the Mycenaean culture in a modern context?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Isolated  
+B) Globalized  
+C) Fragmented  
+D) Decentralized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Who controlled the economy in Mesopotamian cities? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: What must the founder of a colony do to proceed with the establishment?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Obtain funds from the city treasury  
+B) Recruit soldiers for protection  
+C) Gain recognition from the town council 
+D) Write a detailed business plan   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: What are key considerations for selecting a colony location? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Climate and weather patterns  
+B) Proximity to other Greek cities  
+C) A good harbor, fertile farmland, and lack of hostile natives  
+D) Availability of luxury goods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:What is Delphi known for in Greek mythology?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Being the birthplace of Zeus  
+B) Hosting the first Olympic Games  
+C) Being the site of Apollo's oracle  
+D) Housing the largest library in Greece </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: What was one of the duties of the ephors? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Leading military campaigns 
+B) Keeping watch on the kings  
+C) Conducting religious rituals  
+D) Collecting taxes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: When would the ephors go to the assembly for approval?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) For minor issues  
+B) For religious decisions  
+C) For fundamental issues like war and peace  
+D) For economic matters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: How were members of the gerousia selected compared to the ephors?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) The gerousia members were older and had proven themselves  
+B) The gerousia members were chosen by lottery 
+C) The ephors were more prestigious  
+D) The ephors were selected for their military skills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Their focus on religious practices  
+B) Their interest in trade and commerce  
+C) Their desire for independence and autonomy  
+D) Their pursuit of philosophical knowledge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Merchants  
+B) The king and bureaucrats  
+C) Priests  
+D) Local governors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: What did the Greeks’ devotion to the polis explain about their society? </t>
   </si>
 </sst>
 </file>
@@ -420,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,19 +515,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -460,13 +538,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -474,50 +552,186 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/passage_qa/questionbank.xlsx
+++ b/passage_qa/questionbank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erang\Desktop\Reading_task\passage_qa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14312D-7D56-4F10-95F8-93D175210AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE994E66-3126-479A-80CE-636E85D9E484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>R1</t>
   </si>
@@ -60,27 +60,9 @@
     <t>Correct_answer</t>
   </si>
   <si>
-    <t xml:space="preserve">1: What is the Greek word for citizen?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Polis  
-B) Politas  
-C) Pericles  
-D) Subject </t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t xml:space="preserve">2: What problem did the Greeks wrestle with, according to the passage?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) The conflict between different city-states  
-B) Balancing individual interests with the needs of the community  
-C) Developing a new form of government  
-D) Expanding their territory   </t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -90,94 +72,116 @@
     <t>R4</t>
   </si>
   <si>
-    <t xml:space="preserve">1: What indicates that the Mycenaean towns were in contact with each other?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Different languages 
-B) Similar pottery styles  
-C) Unique architecture  
-D) Diverse cultural practices </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: What term does the passage use to describe the Mycenaean culture in a modern context?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Isolated  
-B) Globalized  
-C) Fragmented  
-D) Decentralized </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3: Who controlled the economy in Mesopotamian cities? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: What must the founder of a colony do to proceed with the establishment?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Obtain funds from the city treasury  
-B) Recruit soldiers for protection  
-C) Gain recognition from the town council 
-D) Write a detailed business plan   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: What are key considerations for selecting a colony location? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Climate and weather patterns  
-B) Proximity to other Greek cities  
-C) A good harbor, fertile farmland, and lack of hostile natives  
-D) Availability of luxury goods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:What is Delphi known for in Greek mythology?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Being the birthplace of Zeus  
-B) Hosting the first Olympic Games  
-C) Being the site of Apollo's oracle  
-D) Housing the largest library in Greece </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: What was one of the duties of the ephors? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Leading military campaigns 
-B) Keeping watch on the kings  
-C) Conducting religious rituals  
-D) Collecting taxes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2: When would the ephors go to the assembly for approval?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) For minor issues  
-B) For religious decisions  
-C) For fundamental issues like war and peace  
-D) For economic matters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3: How were members of the gerousia selected compared to the ephors?  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) The gerousia members were older and had proven themselves  
-B) The gerousia members were chosen by lottery 
-C) The ephors were more prestigious  
-D) The ephors were selected for their military skills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Their focus on religious practices  
-B) Their interest in trade and commerce  
-C) Their desire for independence and autonomy  
-D) Their pursuit of philosophical knowledge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A) Merchants  
-B) The king and bureaucrats  
-C) Priests  
-D) Local governors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3: What did the Greeks’ devotion to the polis explain about their society? </t>
+    <t>1. What does the term "thalassocracy" refer to?</t>
+  </si>
+  <si>
+    <t>2. What script did the Minoans use for writing?</t>
+  </si>
+  <si>
+    <t>3. What script replaced Linear A after the destruction of the Minoan palaces?</t>
+  </si>
+  <si>
+    <t>A) Land-based political system
+B) Theocratic political system
+C) Democracy
+D) Sea-based political system</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1. What development occurred in Greek city-states due to the inherent distrust of authority?</t>
+  </si>
+  <si>
+    <t>2. By the late sixth century BC, what did the vision of the ideal citizen of the polis lead to?</t>
+  </si>
+  <si>
+    <t>3. What did the Greeks of this era intuitively feel they shared with each other?</t>
+  </si>
+  <si>
+    <t>1. What drove less wealthy Greeks to seek economic independence and political self-determination?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. What did the Greeks transplant to almost every corner of the Mediterranean and the Black Sea? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3. What made the study of this period confusing?</t>
+  </si>
+  <si>
+    <t>1. What was the superior or citizen class in Spartan society called?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. From whom did the two Spartan dynasties claim direct descent? </t>
+  </si>
+  <si>
+    <t>3. What term describes the rule of older men in Sparta?</t>
+  </si>
+  <si>
+    <t>A) Hieroglyphics
+B) Linear B
+C) Linear A
+D) Cuneiform</t>
+  </si>
+  <si>
+    <t>A) Hieroglyphics
+B) Linear B
+C) Cuneiform
+D) Greek alphabet</t>
+  </si>
+  <si>
+    <t>A) The rise of monarchies
+B) The abolition of free males
+C) The idea of free males being equal in status
+D) The establishment of feudalism</t>
+  </si>
+  <si>
+    <t>A) Democracy
+B) Oligarchy
+C) Tyranny
+D) Monarchy</t>
+  </si>
+  <si>
+    <t>A) Submission to a hierarchical order
+B) Pursuit of harmonious coexistence
+C) Emphasis on rebellious and independent spirit
+D) Reliance on established aristocratic traditions</t>
+  </si>
+  <si>
+    <t>A) Abundance of resources
+B) Scarce resources
+C) Political stability
+D) Military pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Their agricultural practices 
+B) Their political systems 
+C) Their architectural styles
+D) Their distinctive way of life </t>
+  </si>
+  <si>
+    <t>A) Lack of historical records
+B) Reapplying old names to new settlements
+C) Limited archaeological evidence
+D) Inconsistent historical accounts</t>
+  </si>
+  <si>
+    <t>A) Perioeci
+B) Helots
+C) Spartiates
+D) Ephors</t>
+  </si>
+  <si>
+    <t>A) Achilles
+B) Heracles
+C) Odysseus
+D) Theseus</t>
+  </si>
+  <si>
+    <t>A) Democracy
+B) Monarchy
+C) Gerontocracy
+D) Oligarchy</t>
   </si>
 </sst>
 </file>
@@ -500,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -555,13 +559,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -572,61 +576,61 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -634,104 +638,104 @@
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
